--- a/Timesheet.xlsx
+++ b/Timesheet.xlsx
@@ -1,11 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="17710"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="17571"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="68" documentId="20D7C80873849F603A2FF1BC9BE4921BCFEDC7CE" xr6:coauthVersionLast="12" xr6:coauthVersionMax="12" xr10:uidLastSave="{044966CE-00F7-4A49-B79F-47CCC358A7F7}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Someone\Documents\GitHub\Virtual-World-for-Reddit\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -15,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="12">
   <si>
     <t>Time Sheet</t>
   </si>
@@ -49,12 +53,15 @@
   <si>
     <t>Unity</t>
   </si>
+  <si>
+    <t>Server planning</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -389,24 +396,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I145"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" xr3:uid="{AEA406A1-0E4B-5B11-9CD5-51D6E497D94C}">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.81640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.26953125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -414,7 +421,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -431,7 +438,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B3" t="s">
         <v>7</v>
       </c>
@@ -457,13 +464,13 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>9</v>
       </c>
       <c r="B4">
         <f>SUM(B5:B155)</f>
-        <v>0</v>
+        <v>3.7</v>
       </c>
       <c r="D4">
         <v>2</v>
@@ -480,707 +487,722 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>42727</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>42728</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>42729</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>42730</v>
       </c>
-    </row>
-    <row r="9" spans="1:9">
+      <c r="B8">
+        <v>0.5</v>
+      </c>
+      <c r="C8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>42731</v>
       </c>
-    </row>
-    <row r="10" spans="1:9">
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>42732</v>
       </c>
-    </row>
-    <row r="11" spans="1:9">
+      <c r="B10">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>42733</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>42734</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>42735</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>42736</v>
       </c>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>42737</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <v>42738</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
         <v>42739</v>
       </c>
     </row>
-    <row r="18" spans="1:1">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
         <v>42740</v>
       </c>
     </row>
-    <row r="19" spans="1:1">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
         <v>42741</v>
       </c>
     </row>
-    <row r="20" spans="1:1">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
         <v>42742</v>
       </c>
     </row>
-    <row r="21" spans="1:1">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
         <v>42743</v>
       </c>
     </row>
-    <row r="22" spans="1:1">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
         <v>42744</v>
       </c>
     </row>
-    <row r="23" spans="1:1">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
         <v>42745</v>
       </c>
     </row>
-    <row r="24" spans="1:1">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
         <v>42746</v>
       </c>
     </row>
-    <row r="25" spans="1:1">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
         <v>42747</v>
       </c>
     </row>
-    <row r="26" spans="1:1">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A26" s="1">
         <v>42748</v>
       </c>
     </row>
-    <row r="27" spans="1:1">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
         <v>42749</v>
       </c>
     </row>
-    <row r="28" spans="1:1">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A28" s="1">
         <v>42750</v>
       </c>
     </row>
-    <row r="29" spans="1:1">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A29" s="1">
         <v>42751</v>
       </c>
     </row>
-    <row r="30" spans="1:1">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A30" s="1">
         <v>42752</v>
       </c>
     </row>
-    <row r="31" spans="1:1">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A31" s="1">
         <v>42753</v>
       </c>
     </row>
-    <row r="32" spans="1:1">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A32" s="1">
         <v>42754</v>
       </c>
     </row>
-    <row r="33" spans="1:1">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A33" s="1">
         <v>42755</v>
       </c>
     </row>
-    <row r="34" spans="1:1">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A34" s="1">
         <v>42756</v>
       </c>
     </row>
-    <row r="35" spans="1:1">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A35" s="1">
         <v>42757</v>
       </c>
     </row>
-    <row r="36" spans="1:1">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A36" s="1">
         <v>42758</v>
       </c>
     </row>
-    <row r="37" spans="1:1">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A37" s="1">
         <v>42759</v>
       </c>
     </row>
-    <row r="38" spans="1:1">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A38" s="1">
         <v>42760</v>
       </c>
     </row>
-    <row r="39" spans="1:1">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A39" s="1">
         <v>42761</v>
       </c>
     </row>
-    <row r="40" spans="1:1">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A40" s="1">
         <v>42762</v>
       </c>
     </row>
-    <row r="41" spans="1:1">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A41" s="1">
         <v>42763</v>
       </c>
     </row>
-    <row r="42" spans="1:1">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A42" s="1">
         <v>42764</v>
       </c>
     </row>
-    <row r="43" spans="1:1">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A43" s="1">
         <v>42765</v>
       </c>
     </row>
-    <row r="44" spans="1:1">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A44" s="1">
         <v>42766</v>
       </c>
     </row>
-    <row r="45" spans="1:1">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A45" s="1">
         <v>42767</v>
       </c>
     </row>
-    <row r="46" spans="1:1">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A46" s="1">
         <v>42768</v>
       </c>
     </row>
-    <row r="47" spans="1:1">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A47" s="1">
         <v>42769</v>
       </c>
     </row>
-    <row r="48" spans="1:1">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A48" s="1">
         <v>42770</v>
       </c>
     </row>
-    <row r="49" spans="1:1">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A49" s="1">
         <v>42771</v>
       </c>
     </row>
-    <row r="50" spans="1:1">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A50" s="1">
         <v>42772</v>
       </c>
     </row>
-    <row r="51" spans="1:1">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A51" s="1">
         <v>42773</v>
       </c>
     </row>
-    <row r="52" spans="1:1">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A52" s="1">
         <v>42774</v>
       </c>
     </row>
-    <row r="53" spans="1:1">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A53" s="1">
         <v>42775</v>
       </c>
     </row>
-    <row r="54" spans="1:1">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A54" s="1">
         <v>42776</v>
       </c>
     </row>
-    <row r="55" spans="1:1">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A55" s="1">
         <v>42777</v>
       </c>
     </row>
-    <row r="56" spans="1:1">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A56" s="1">
         <v>42778</v>
       </c>
     </row>
-    <row r="57" spans="1:1">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A57" s="1">
         <v>42779</v>
       </c>
     </row>
-    <row r="58" spans="1:1">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A58" s="1">
         <v>42780</v>
       </c>
     </row>
-    <row r="59" spans="1:1">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A59" s="1">
         <v>42781</v>
       </c>
     </row>
-    <row r="60" spans="1:1">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A60" s="1">
         <v>42782</v>
       </c>
     </row>
-    <row r="61" spans="1:1">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A61" s="1">
         <v>42783</v>
       </c>
     </row>
-    <row r="62" spans="1:1">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A62" s="1">
         <v>42784</v>
       </c>
     </row>
-    <row r="63" spans="1:1">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A63" s="1">
         <v>42785</v>
       </c>
     </row>
-    <row r="64" spans="1:1">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A64" s="1">
         <v>42786</v>
       </c>
     </row>
-    <row r="65" spans="1:1">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A65" s="1">
         <v>42787</v>
       </c>
     </row>
-    <row r="66" spans="1:1">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A66" s="1">
         <v>42788</v>
       </c>
     </row>
-    <row r="67" spans="1:1">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A67" s="1">
         <v>42789</v>
       </c>
     </row>
-    <row r="68" spans="1:1">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A68" s="1">
         <v>42790</v>
       </c>
     </row>
-    <row r="69" spans="1:1">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A69" s="1">
         <v>42791</v>
       </c>
     </row>
-    <row r="70" spans="1:1">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A70" s="1">
         <v>42792</v>
       </c>
     </row>
-    <row r="71" spans="1:1">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A71" s="1">
         <v>42793</v>
       </c>
     </row>
-    <row r="72" spans="1:1">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A72" s="1">
         <v>42794</v>
       </c>
     </row>
-    <row r="73" spans="1:1">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A73" s="1">
         <v>42795</v>
       </c>
     </row>
-    <row r="74" spans="1:1">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A74" s="1">
         <v>42796</v>
       </c>
     </row>
-    <row r="75" spans="1:1">
+    <row r="75" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A75" s="1">
         <v>42797</v>
       </c>
     </row>
-    <row r="76" spans="1:1">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A76" s="1">
         <v>42798</v>
       </c>
     </row>
-    <row r="77" spans="1:1">
+    <row r="77" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A77" s="1">
         <v>42799</v>
       </c>
     </row>
-    <row r="78" spans="1:1">
+    <row r="78" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A78" s="1">
         <v>42800</v>
       </c>
     </row>
-    <row r="79" spans="1:1">
+    <row r="79" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A79" s="1">
         <v>42801</v>
       </c>
     </row>
-    <row r="80" spans="1:1">
+    <row r="80" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A80" s="1">
         <v>42802</v>
       </c>
     </row>
-    <row r="81" spans="1:1">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A81" s="1">
         <v>42803</v>
       </c>
     </row>
-    <row r="82" spans="1:1">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A82" s="1">
         <v>42804</v>
       </c>
     </row>
-    <row r="83" spans="1:1">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A83" s="1">
         <v>42805</v>
       </c>
     </row>
-    <row r="84" spans="1:1">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A84" s="1">
         <v>42806</v>
       </c>
     </row>
-    <row r="85" spans="1:1">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A85" s="1">
         <v>42807</v>
       </c>
     </row>
-    <row r="86" spans="1:1">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A86" s="1">
         <v>42808</v>
       </c>
     </row>
-    <row r="87" spans="1:1">
+    <row r="87" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A87" s="1">
         <v>42809</v>
       </c>
     </row>
-    <row r="88" spans="1:1">
+    <row r="88" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A88" s="1">
         <v>42810</v>
       </c>
     </row>
-    <row r="89" spans="1:1">
+    <row r="89" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A89" s="1">
         <v>42811</v>
       </c>
     </row>
-    <row r="90" spans="1:1">
+    <row r="90" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A90" s="1">
         <v>42812</v>
       </c>
     </row>
-    <row r="91" spans="1:1">
+    <row r="91" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A91" s="1">
         <v>42813</v>
       </c>
     </row>
-    <row r="92" spans="1:1">
+    <row r="92" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A92" s="1">
         <v>42814</v>
       </c>
     </row>
-    <row r="93" spans="1:1">
+    <row r="93" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A93" s="1">
         <v>42815</v>
       </c>
     </row>
-    <row r="94" spans="1:1">
+    <row r="94" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A94" s="1">
         <v>42816</v>
       </c>
     </row>
-    <row r="95" spans="1:1">
+    <row r="95" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A95" s="1">
         <v>42817</v>
       </c>
     </row>
-    <row r="96" spans="1:1">
+    <row r="96" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A96" s="1">
         <v>42818</v>
       </c>
     </row>
-    <row r="97" spans="1:1">
+    <row r="97" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A97" s="1">
         <v>42819</v>
       </c>
     </row>
-    <row r="98" spans="1:1">
+    <row r="98" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A98" s="1">
         <v>42820</v>
       </c>
     </row>
-    <row r="99" spans="1:1">
+    <row r="99" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A99" s="1">
         <v>42821</v>
       </c>
     </row>
-    <row r="100" spans="1:1">
+    <row r="100" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A100" s="1">
         <v>42822</v>
       </c>
     </row>
-    <row r="101" spans="1:1">
+    <row r="101" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A101" s="1">
         <v>42823</v>
       </c>
     </row>
-    <row r="102" spans="1:1">
+    <row r="102" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A102" s="1">
         <v>42824</v>
       </c>
     </row>
-    <row r="103" spans="1:1">
+    <row r="103" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A103" s="1">
         <v>42825</v>
       </c>
     </row>
-    <row r="104" spans="1:1">
+    <row r="104" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A104" s="1">
         <v>42826</v>
       </c>
     </row>
-    <row r="105" spans="1:1">
+    <row r="105" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A105" s="1">
         <v>42827</v>
       </c>
     </row>
-    <row r="106" spans="1:1">
+    <row r="106" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A106" s="1">
         <v>42828</v>
       </c>
     </row>
-    <row r="107" spans="1:1">
+    <row r="107" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A107" s="1">
         <v>42829</v>
       </c>
     </row>
-    <row r="108" spans="1:1">
+    <row r="108" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A108" s="1">
         <v>42830</v>
       </c>
     </row>
-    <row r="109" spans="1:1">
+    <row r="109" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A109" s="1">
         <v>42831</v>
       </c>
     </row>
-    <row r="110" spans="1:1">
+    <row r="110" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A110" s="1">
         <v>42832</v>
       </c>
     </row>
-    <row r="111" spans="1:1">
+    <row r="111" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A111" s="1">
         <v>42833</v>
       </c>
     </row>
-    <row r="112" spans="1:1">
+    <row r="112" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A112" s="1">
         <v>42834</v>
       </c>
     </row>
-    <row r="113" spans="1:1">
+    <row r="113" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A113" s="1">
         <v>42835</v>
       </c>
     </row>
-    <row r="114" spans="1:1">
+    <row r="114" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A114" s="1">
         <v>42836</v>
       </c>
     </row>
-    <row r="115" spans="1:1">
+    <row r="115" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A115" s="1">
         <v>42837</v>
       </c>
     </row>
-    <row r="116" spans="1:1">
+    <row r="116" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A116" s="1">
         <v>42838</v>
       </c>
     </row>
-    <row r="117" spans="1:1">
+    <row r="117" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A117" s="1">
         <v>42839</v>
       </c>
     </row>
-    <row r="118" spans="1:1">
+    <row r="118" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A118" s="1">
         <v>42840</v>
       </c>
     </row>
-    <row r="119" spans="1:1">
+    <row r="119" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A119" s="1">
         <v>42841</v>
       </c>
     </row>
-    <row r="120" spans="1:1">
+    <row r="120" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A120" s="1">
         <v>42842</v>
       </c>
     </row>
-    <row r="121" spans="1:1">
+    <row r="121" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A121" s="1">
         <v>42843</v>
       </c>
     </row>
-    <row r="122" spans="1:1">
+    <row r="122" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A122" s="1">
         <v>42844</v>
       </c>
     </row>
-    <row r="123" spans="1:1">
+    <row r="123" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A123" s="1">
         <v>42845</v>
       </c>
     </row>
-    <row r="124" spans="1:1">
+    <row r="124" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A124" s="1">
         <v>42846</v>
       </c>
     </row>
-    <row r="125" spans="1:1">
+    <row r="125" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A125" s="1">
         <v>42847</v>
       </c>
     </row>
-    <row r="126" spans="1:1">
+    <row r="126" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A126" s="1">
         <v>42848</v>
       </c>
     </row>
-    <row r="127" spans="1:1">
+    <row r="127" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A127" s="1">
         <v>42849</v>
       </c>
     </row>
-    <row r="128" spans="1:1">
+    <row r="128" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A128" s="1">
         <v>42850</v>
       </c>
     </row>
-    <row r="129" spans="1:1">
+    <row r="129" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A129" s="1">
         <v>42851</v>
       </c>
     </row>
-    <row r="130" spans="1:1">
+    <row r="130" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A130" s="1">
         <v>42852</v>
       </c>
     </row>
-    <row r="131" spans="1:1">
+    <row r="131" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A131" s="1">
         <v>42853</v>
       </c>
     </row>
-    <row r="132" spans="1:1">
+    <row r="132" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A132" s="1">
         <v>42854</v>
       </c>
     </row>
-    <row r="133" spans="1:1">
+    <row r="133" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A133" s="1">
         <v>42855</v>
       </c>
     </row>
-    <row r="134" spans="1:1">
+    <row r="134" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A134" s="1">
         <v>42856</v>
       </c>
     </row>
-    <row r="135" spans="1:1">
+    <row r="135" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A135" s="1">
         <v>42857</v>
       </c>
     </row>
-    <row r="136" spans="1:1">
+    <row r="136" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A136" s="1">
         <v>42858</v>
       </c>
     </row>
-    <row r="137" spans="1:1">
+    <row r="137" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A137" s="1">
         <v>42859</v>
       </c>
     </row>
-    <row r="138" spans="1:1">
+    <row r="138" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A138" s="1">
         <v>42860</v>
       </c>
     </row>
-    <row r="139" spans="1:1">
+    <row r="139" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A139" s="1">
         <v>42861</v>
       </c>
     </row>
-    <row r="140" spans="1:1">
+    <row r="140" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A140" s="1">
         <v>42862</v>
       </c>
     </row>
-    <row r="141" spans="1:1">
+    <row r="141" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A141" s="1">
         <v>42863</v>
       </c>
     </row>
-    <row r="142" spans="1:1">
+    <row r="142" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A142" s="1">
         <v>42864</v>
       </c>
     </row>
-    <row r="143" spans="1:1">
+    <row r="143" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A143" s="1">
         <v>42865</v>
       </c>
     </row>
-    <row r="144" spans="1:1">
+    <row r="144" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A144" s="1">
         <v>42866</v>
       </c>
     </row>
-    <row r="145" spans="1:1">
+    <row r="145" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A145" s="1">
         <v>42867</v>
       </c>

--- a/Timesheet.xlsx
+++ b/Timesheet.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="17571"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="17726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Someone\Documents\GitHub\Virtual-World-for-Reddit\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="6" documentId="A14311D02825C65E11034595610202AE2DBA6EF7" xr6:coauthVersionLast="12" xr6:coauthVersionMax="12" xr10:uidLastSave="{898AD568-9A87-4060-9D4C-89947FE3F09E}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="13">
   <si>
     <t>Time Sheet</t>
   </si>
@@ -56,12 +57,15 @@
   <si>
     <t>Server planning</t>
   </si>
+  <si>
+    <t>Unity (LOD)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -396,24 +400,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I145"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" workbookViewId="0" xr3:uid="{AEA406A1-0E4B-5B11-9CD5-51D6E497D94C}">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.45"/>
   <cols>
-    <col min="1" max="1" width="11.7265625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.1796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.81640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.26953125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.81640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -421,7 +425,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -438,7 +442,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9">
       <c r="B3" t="s">
         <v>7</v>
       </c>
@@ -464,7 +468,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -473,7 +477,8 @@
         <v>3.7</v>
       </c>
       <c r="D4">
-        <v>2</v>
+        <f t="shared" ref="C4:D4" si="0">SUM(D5:D155)</f>
+        <v>2.75</v>
       </c>
       <c r="E4" t="s">
         <v>10</v>
@@ -487,22 +492,25 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9">
       <c r="A5" s="1">
         <v>42727</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="D5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1">
         <v>42728</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9">
       <c r="A7" s="1">
         <v>42729</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9">
       <c r="A8" s="1">
         <v>42730</v>
       </c>
@@ -513,7 +521,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9">
       <c r="A9" s="1">
         <v>42731</v>
       </c>
@@ -524,7 +532,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9">
       <c r="A10" s="1">
         <v>42732</v>
       </c>
@@ -532,677 +540,683 @@
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9">
       <c r="A11" s="1">
         <v>42733</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9">
       <c r="A12" s="1">
         <v>42734</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9">
       <c r="A13" s="1">
         <v>42735</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9">
       <c r="A14" s="1">
         <v>42736</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:9">
       <c r="A15" s="1">
         <v>42737</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:9">
       <c r="A16" s="1">
         <v>42738</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="D16">
+        <v>0.75</v>
+      </c>
+      <c r="E16" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
       <c r="A17" s="1">
         <v>42739</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:1">
       <c r="A18" s="1">
         <v>42740</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:1">
       <c r="A19" s="1">
         <v>42741</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:1">
       <c r="A20" s="1">
         <v>42742</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:1">
       <c r="A21" s="1">
         <v>42743</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:1">
       <c r="A22" s="1">
         <v>42744</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:1">
       <c r="A23" s="1">
         <v>42745</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:1">
       <c r="A24" s="1">
         <v>42746</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:1">
       <c r="A25" s="1">
         <v>42747</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:1">
       <c r="A26" s="1">
         <v>42748</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:1">
       <c r="A27" s="1">
         <v>42749</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:1">
       <c r="A28" s="1">
         <v>42750</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:1">
       <c r="A29" s="1">
         <v>42751</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:1">
       <c r="A30" s="1">
         <v>42752</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:1">
       <c r="A31" s="1">
         <v>42753</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:1">
       <c r="A32" s="1">
         <v>42754</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:1">
       <c r="A33" s="1">
         <v>42755</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:1">
       <c r="A34" s="1">
         <v>42756</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:1">
       <c r="A35" s="1">
         <v>42757</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:1">
       <c r="A36" s="1">
         <v>42758</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:1">
       <c r="A37" s="1">
         <v>42759</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:1">
       <c r="A38" s="1">
         <v>42760</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:1">
       <c r="A39" s="1">
         <v>42761</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:1">
       <c r="A40" s="1">
         <v>42762</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:1">
       <c r="A41" s="1">
         <v>42763</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:1">
       <c r="A42" s="1">
         <v>42764</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:1">
       <c r="A43" s="1">
         <v>42765</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:1">
       <c r="A44" s="1">
         <v>42766</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:1">
       <c r="A45" s="1">
         <v>42767</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:1">
       <c r="A46" s="1">
         <v>42768</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:1">
       <c r="A47" s="1">
         <v>42769</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:1">
       <c r="A48" s="1">
         <v>42770</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:1">
       <c r="A49" s="1">
         <v>42771</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:1">
       <c r="A50" s="1">
         <v>42772</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:1">
       <c r="A51" s="1">
         <v>42773</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:1">
       <c r="A52" s="1">
         <v>42774</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:1">
       <c r="A53" s="1">
         <v>42775</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:1">
       <c r="A54" s="1">
         <v>42776</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:1">
       <c r="A55" s="1">
         <v>42777</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:1">
       <c r="A56" s="1">
         <v>42778</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:1">
       <c r="A57" s="1">
         <v>42779</v>
       </c>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:1">
       <c r="A58" s="1">
         <v>42780</v>
       </c>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:1">
       <c r="A59" s="1">
         <v>42781</v>
       </c>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:1">
       <c r="A60" s="1">
         <v>42782</v>
       </c>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:1">
       <c r="A61" s="1">
         <v>42783</v>
       </c>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:1">
       <c r="A62" s="1">
         <v>42784</v>
       </c>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:1">
       <c r="A63" s="1">
         <v>42785</v>
       </c>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:1">
       <c r="A64" s="1">
         <v>42786</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:1">
       <c r="A65" s="1">
         <v>42787</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:1">
       <c r="A66" s="1">
         <v>42788</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:1">
       <c r="A67" s="1">
         <v>42789</v>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:1">
       <c r="A68" s="1">
         <v>42790</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:1">
       <c r="A69" s="1">
         <v>42791</v>
       </c>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:1">
       <c r="A70" s="1">
         <v>42792</v>
       </c>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:1">
       <c r="A71" s="1">
         <v>42793</v>
       </c>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:1">
       <c r="A72" s="1">
         <v>42794</v>
       </c>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:1">
       <c r="A73" s="1">
         <v>42795</v>
       </c>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:1">
       <c r="A74" s="1">
         <v>42796</v>
       </c>
     </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:1">
       <c r="A75" s="1">
         <v>42797</v>
       </c>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:1">
       <c r="A76" s="1">
         <v>42798</v>
       </c>
     </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:1">
       <c r="A77" s="1">
         <v>42799</v>
       </c>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:1">
       <c r="A78" s="1">
         <v>42800</v>
       </c>
     </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:1">
       <c r="A79" s="1">
         <v>42801</v>
       </c>
     </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:1">
       <c r="A80" s="1">
         <v>42802</v>
       </c>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:1">
       <c r="A81" s="1">
         <v>42803</v>
       </c>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:1">
       <c r="A82" s="1">
         <v>42804</v>
       </c>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:1">
       <c r="A83" s="1">
         <v>42805</v>
       </c>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:1">
       <c r="A84" s="1">
         <v>42806</v>
       </c>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:1">
       <c r="A85" s="1">
         <v>42807</v>
       </c>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:1">
       <c r="A86" s="1">
         <v>42808</v>
       </c>
     </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:1">
       <c r="A87" s="1">
         <v>42809</v>
       </c>
     </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:1">
       <c r="A88" s="1">
         <v>42810</v>
       </c>
     </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:1">
       <c r="A89" s="1">
         <v>42811</v>
       </c>
     </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:1">
       <c r="A90" s="1">
         <v>42812</v>
       </c>
     </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:1">
       <c r="A91" s="1">
         <v>42813</v>
       </c>
     </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:1">
       <c r="A92" s="1">
         <v>42814</v>
       </c>
     </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:1">
       <c r="A93" s="1">
         <v>42815</v>
       </c>
     </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:1">
       <c r="A94" s="1">
         <v>42816</v>
       </c>
     </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:1">
       <c r="A95" s="1">
         <v>42817</v>
       </c>
     </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:1">
       <c r="A96" s="1">
         <v>42818</v>
       </c>
     </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:1">
       <c r="A97" s="1">
         <v>42819</v>
       </c>
     </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:1">
       <c r="A98" s="1">
         <v>42820</v>
       </c>
     </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:1">
       <c r="A99" s="1">
         <v>42821</v>
       </c>
     </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:1">
       <c r="A100" s="1">
         <v>42822</v>
       </c>
     </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:1">
       <c r="A101" s="1">
         <v>42823</v>
       </c>
     </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:1">
       <c r="A102" s="1">
         <v>42824</v>
       </c>
     </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:1">
       <c r="A103" s="1">
         <v>42825</v>
       </c>
     </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:1">
       <c r="A104" s="1">
         <v>42826</v>
       </c>
     </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:1">
       <c r="A105" s="1">
         <v>42827</v>
       </c>
     </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:1">
       <c r="A106" s="1">
         <v>42828</v>
       </c>
     </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:1">
       <c r="A107" s="1">
         <v>42829</v>
       </c>
     </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:1">
       <c r="A108" s="1">
         <v>42830</v>
       </c>
     </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:1">
       <c r="A109" s="1">
         <v>42831</v>
       </c>
     </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:1">
       <c r="A110" s="1">
         <v>42832</v>
       </c>
     </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:1">
       <c r="A111" s="1">
         <v>42833</v>
       </c>
     </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:1">
       <c r="A112" s="1">
         <v>42834</v>
       </c>
     </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:1">
       <c r="A113" s="1">
         <v>42835</v>
       </c>
     </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:1">
       <c r="A114" s="1">
         <v>42836</v>
       </c>
     </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:1">
       <c r="A115" s="1">
         <v>42837</v>
       </c>
     </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:1">
       <c r="A116" s="1">
         <v>42838</v>
       </c>
     </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:1">
       <c r="A117" s="1">
         <v>42839</v>
       </c>
     </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:1">
       <c r="A118" s="1">
         <v>42840</v>
       </c>
     </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:1">
       <c r="A119" s="1">
         <v>42841</v>
       </c>
     </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:1">
       <c r="A120" s="1">
         <v>42842</v>
       </c>
     </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:1">
       <c r="A121" s="1">
         <v>42843</v>
       </c>
     </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:1">
       <c r="A122" s="1">
         <v>42844</v>
       </c>
     </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:1">
       <c r="A123" s="1">
         <v>42845</v>
       </c>
     </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:1">
       <c r="A124" s="1">
         <v>42846</v>
       </c>
     </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:1">
       <c r="A125" s="1">
         <v>42847</v>
       </c>
     </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:1">
       <c r="A126" s="1">
         <v>42848</v>
       </c>
     </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:1">
       <c r="A127" s="1">
         <v>42849</v>
       </c>
     </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:1">
       <c r="A128" s="1">
         <v>42850</v>
       </c>
     </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:1">
       <c r="A129" s="1">
         <v>42851</v>
       </c>
     </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:1">
       <c r="A130" s="1">
         <v>42852</v>
       </c>
     </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:1">
       <c r="A131" s="1">
         <v>42853</v>
       </c>
     </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:1">
       <c r="A132" s="1">
         <v>42854</v>
       </c>
     </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:1">
       <c r="A133" s="1">
         <v>42855</v>
       </c>
     </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:1">
       <c r="A134" s="1">
         <v>42856</v>
       </c>
     </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:1">
       <c r="A135" s="1">
         <v>42857</v>
       </c>
     </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:1">
       <c r="A136" s="1">
         <v>42858</v>
       </c>
     </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:1">
       <c r="A137" s="1">
         <v>42859</v>
       </c>
     </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:1">
       <c r="A138" s="1">
         <v>42860</v>
       </c>
     </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:1">
       <c r="A139" s="1">
         <v>42861</v>
       </c>
     </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:1">
       <c r="A140" s="1">
         <v>42862</v>
       </c>
     </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:1">
       <c r="A141" s="1">
         <v>42863</v>
       </c>
     </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:1">
       <c r="A142" s="1">
         <v>42864</v>
       </c>
     </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:1">
       <c r="A143" s="1">
         <v>42865</v>
       </c>
     </row>
-    <row r="144" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:1">
       <c r="A144" s="1">
         <v>42866</v>
       </c>
     </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:1">
       <c r="A145" s="1">
         <v>42867</v>
       </c>

--- a/Timesheet.xlsx
+++ b/Timesheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Someone\Documents\GitHub\Virtual-World-for-Reddit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6" documentId="A14311D02825C65E11034595610202AE2DBA6EF7" xr6:coauthVersionLast="12" xr6:coauthVersionMax="12" xr10:uidLastSave="{898AD568-9A87-4060-9D4C-89947FE3F09E}"/>
+  <xr:revisionPtr revIDLastSave="10" documentId="A14311D02825C65E11034595610202AE2DBA6EF7" xr6:coauthVersionLast="12" xr6:coauthVersionMax="12" xr10:uidLastSave="{469E32A7-250C-4A3F-B536-72E6F28407EB}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="13">
   <si>
     <t>Time Sheet</t>
   </si>
@@ -58,7 +58,7 @@
     <t>Server planning</t>
   </si>
   <si>
-    <t>Unity (LOD)</t>
+    <t xml:space="preserve">Unity </t>
   </si>
 </sst>
 </file>
@@ -403,7 +403,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I145"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" xr3:uid="{AEA406A1-0E4B-5B11-9CD5-51D6E497D94C}">
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0" xr3:uid="{AEA406A1-0E4B-5B11-9CD5-51D6E497D94C}">
       <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
@@ -478,10 +478,7 @@
       </c>
       <c r="D4">
         <f t="shared" ref="C4:D4" si="0">SUM(D5:D155)</f>
-        <v>2.75</v>
-      </c>
-      <c r="E4" t="s">
-        <v>10</v>
+        <v>4.75</v>
       </c>
       <c r="F4">
         <f>SUM(F5:F155)</f>
@@ -499,6 +496,9 @@
       <c r="D5">
         <v>2</v>
       </c>
+      <c r="E5" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="1">
@@ -576,82 +576,88 @@
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
+    <row r="17" spans="1:5">
       <c r="A17" s="1">
         <v>42739</v>
       </c>
-    </row>
-    <row r="18" spans="1:1">
+      <c r="D17">
+        <v>2</v>
+      </c>
+      <c r="E17" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
       <c r="A18" s="1">
         <v>42740</v>
       </c>
     </row>
-    <row r="19" spans="1:1">
+    <row r="19" spans="1:5">
       <c r="A19" s="1">
         <v>42741</v>
       </c>
     </row>
-    <row r="20" spans="1:1">
+    <row r="20" spans="1:5">
       <c r="A20" s="1">
         <v>42742</v>
       </c>
     </row>
-    <row r="21" spans="1:1">
+    <row r="21" spans="1:5">
       <c r="A21" s="1">
         <v>42743</v>
       </c>
     </row>
-    <row r="22" spans="1:1">
+    <row r="22" spans="1:5">
       <c r="A22" s="1">
         <v>42744</v>
       </c>
     </row>
-    <row r="23" spans="1:1">
+    <row r="23" spans="1:5">
       <c r="A23" s="1">
         <v>42745</v>
       </c>
     </row>
-    <row r="24" spans="1:1">
+    <row r="24" spans="1:5">
       <c r="A24" s="1">
         <v>42746</v>
       </c>
     </row>
-    <row r="25" spans="1:1">
+    <row r="25" spans="1:5">
       <c r="A25" s="1">
         <v>42747</v>
       </c>
     </row>
-    <row r="26" spans="1:1">
+    <row r="26" spans="1:5">
       <c r="A26" s="1">
         <v>42748</v>
       </c>
     </row>
-    <row r="27" spans="1:1">
+    <row r="27" spans="1:5">
       <c r="A27" s="1">
         <v>42749</v>
       </c>
     </row>
-    <row r="28" spans="1:1">
+    <row r="28" spans="1:5">
       <c r="A28" s="1">
         <v>42750</v>
       </c>
     </row>
-    <row r="29" spans="1:1">
+    <row r="29" spans="1:5">
       <c r="A29" s="1">
         <v>42751</v>
       </c>
     </row>
-    <row r="30" spans="1:1">
+    <row r="30" spans="1:5">
       <c r="A30" s="1">
         <v>42752</v>
       </c>
     </row>
-    <row r="31" spans="1:1">
+    <row r="31" spans="1:5">
       <c r="A31" s="1">
         <v>42753</v>
       </c>
     </row>
-    <row r="32" spans="1:1">
+    <row r="32" spans="1:5">
       <c r="A32" s="1">
         <v>42754</v>
       </c>

--- a/Timesheet.xlsx
+++ b/Timesheet.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="17726"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="17571"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Someone\Documents\GitHub\Virtual-World-for-Reddit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6" documentId="A14311D02825C65E11034595610202AE2DBA6EF7" xr6:coauthVersionLast="12" xr6:coauthVersionMax="12" xr10:uidLastSave="{898AD568-9A87-4060-9D4C-89947FE3F09E}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="17">
   <si>
     <t>Time Sheet</t>
   </si>
@@ -59,13 +58,25 @@
   </si>
   <si>
     <t>Unity (LOD)</t>
+  </si>
+  <si>
+    <t>Praw</t>
+  </si>
+  <si>
+    <t>Server and praw</t>
+  </si>
+  <si>
+    <t>Server setup and Praw</t>
+  </si>
+  <si>
+    <t>Server Setup</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -400,24 +411,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I145"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" xr3:uid="{AEA406A1-0E4B-5B11-9CD5-51D6E497D94C}">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.81640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.26953125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -425,7 +436,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -442,7 +453,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B3" t="s">
         <v>7</v>
       </c>
@@ -468,16 +479,16 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>9</v>
       </c>
       <c r="B4">
         <f>SUM(B5:B155)</f>
-        <v>3.7</v>
+        <v>7.2</v>
       </c>
       <c r="D4">
-        <f t="shared" ref="C4:D4" si="0">SUM(D5:D155)</f>
+        <f t="shared" ref="D4" si="0">SUM(D5:D155)</f>
         <v>2.75</v>
       </c>
       <c r="E4" t="s">
@@ -485,14 +496,14 @@
       </c>
       <c r="F4">
         <f>SUM(F5:F155)</f>
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="H4">
         <f>SUM(H5:H155)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>42727</v>
       </c>
@@ -500,17 +511,17 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>42728</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>42729</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>42730</v>
       </c>
@@ -521,7 +532,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>42731</v>
       </c>
@@ -532,40 +543,43 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>42732</v>
       </c>
       <c r="B10">
         <v>2.2000000000000002</v>
       </c>
-    </row>
-    <row r="11" spans="1:9">
+      <c r="C10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>42733</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>42734</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>42735</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>42736</v>
       </c>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>42737</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <v>42738</v>
       </c>
@@ -576,647 +590,669 @@
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
         <v>42739</v>
       </c>
-    </row>
-    <row r="18" spans="1:1">
+      <c r="B17">
+        <v>0.5</v>
+      </c>
+      <c r="C17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
         <v>42740</v>
       </c>
-    </row>
-    <row r="19" spans="1:1">
+      <c r="B18">
+        <v>3</v>
+      </c>
+      <c r="C18" t="s">
+        <v>15</v>
+      </c>
+      <c r="F18">
+        <v>1.5</v>
+      </c>
+      <c r="G18" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
         <v>42741</v>
       </c>
-    </row>
-    <row r="20" spans="1:1">
+      <c r="B19">
+        <f>11.5-11.5</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
         <v>42742</v>
       </c>
     </row>
-    <row r="21" spans="1:1">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
         <v>42743</v>
       </c>
     </row>
-    <row r="22" spans="1:1">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
         <v>42744</v>
       </c>
     </row>
-    <row r="23" spans="1:1">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
         <v>42745</v>
       </c>
     </row>
-    <row r="24" spans="1:1">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
         <v>42746</v>
       </c>
     </row>
-    <row r="25" spans="1:1">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
         <v>42747</v>
       </c>
     </row>
-    <row r="26" spans="1:1">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A26" s="1">
         <v>42748</v>
       </c>
     </row>
-    <row r="27" spans="1:1">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
         <v>42749</v>
       </c>
     </row>
-    <row r="28" spans="1:1">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A28" s="1">
         <v>42750</v>
       </c>
     </row>
-    <row r="29" spans="1:1">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A29" s="1">
         <v>42751</v>
       </c>
     </row>
-    <row r="30" spans="1:1">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A30" s="1">
         <v>42752</v>
       </c>
     </row>
-    <row r="31" spans="1:1">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A31" s="1">
         <v>42753</v>
       </c>
     </row>
-    <row r="32" spans="1:1">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A32" s="1">
         <v>42754</v>
       </c>
     </row>
-    <row r="33" spans="1:1">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A33" s="1">
         <v>42755</v>
       </c>
     </row>
-    <row r="34" spans="1:1">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A34" s="1">
         <v>42756</v>
       </c>
     </row>
-    <row r="35" spans="1:1">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A35" s="1">
         <v>42757</v>
       </c>
     </row>
-    <row r="36" spans="1:1">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A36" s="1">
         <v>42758</v>
       </c>
     </row>
-    <row r="37" spans="1:1">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A37" s="1">
         <v>42759</v>
       </c>
     </row>
-    <row r="38" spans="1:1">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A38" s="1">
         <v>42760</v>
       </c>
     </row>
-    <row r="39" spans="1:1">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A39" s="1">
         <v>42761</v>
       </c>
     </row>
-    <row r="40" spans="1:1">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A40" s="1">
         <v>42762</v>
       </c>
     </row>
-    <row r="41" spans="1:1">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A41" s="1">
         <v>42763</v>
       </c>
     </row>
-    <row r="42" spans="1:1">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A42" s="1">
         <v>42764</v>
       </c>
     </row>
-    <row r="43" spans="1:1">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A43" s="1">
         <v>42765</v>
       </c>
     </row>
-    <row r="44" spans="1:1">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A44" s="1">
         <v>42766</v>
       </c>
     </row>
-    <row r="45" spans="1:1">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A45" s="1">
         <v>42767</v>
       </c>
     </row>
-    <row r="46" spans="1:1">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A46" s="1">
         <v>42768</v>
       </c>
     </row>
-    <row r="47" spans="1:1">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A47" s="1">
         <v>42769</v>
       </c>
     </row>
-    <row r="48" spans="1:1">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A48" s="1">
         <v>42770</v>
       </c>
     </row>
-    <row r="49" spans="1:1">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A49" s="1">
         <v>42771</v>
       </c>
     </row>
-    <row r="50" spans="1:1">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A50" s="1">
         <v>42772</v>
       </c>
     </row>
-    <row r="51" spans="1:1">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A51" s="1">
         <v>42773</v>
       </c>
     </row>
-    <row r="52" spans="1:1">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A52" s="1">
         <v>42774</v>
       </c>
     </row>
-    <row r="53" spans="1:1">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A53" s="1">
         <v>42775</v>
       </c>
     </row>
-    <row r="54" spans="1:1">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A54" s="1">
         <v>42776</v>
       </c>
     </row>
-    <row r="55" spans="1:1">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A55" s="1">
         <v>42777</v>
       </c>
     </row>
-    <row r="56" spans="1:1">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A56" s="1">
         <v>42778</v>
       </c>
     </row>
-    <row r="57" spans="1:1">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A57" s="1">
         <v>42779</v>
       </c>
     </row>
-    <row r="58" spans="1:1">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A58" s="1">
         <v>42780</v>
       </c>
     </row>
-    <row r="59" spans="1:1">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A59" s="1">
         <v>42781</v>
       </c>
     </row>
-    <row r="60" spans="1:1">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A60" s="1">
         <v>42782</v>
       </c>
     </row>
-    <row r="61" spans="1:1">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A61" s="1">
         <v>42783</v>
       </c>
     </row>
-    <row r="62" spans="1:1">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A62" s="1">
         <v>42784</v>
       </c>
     </row>
-    <row r="63" spans="1:1">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A63" s="1">
         <v>42785</v>
       </c>
     </row>
-    <row r="64" spans="1:1">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A64" s="1">
         <v>42786</v>
       </c>
     </row>
-    <row r="65" spans="1:1">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A65" s="1">
         <v>42787</v>
       </c>
     </row>
-    <row r="66" spans="1:1">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A66" s="1">
         <v>42788</v>
       </c>
     </row>
-    <row r="67" spans="1:1">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A67" s="1">
         <v>42789</v>
       </c>
     </row>
-    <row r="68" spans="1:1">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A68" s="1">
         <v>42790</v>
       </c>
     </row>
-    <row r="69" spans="1:1">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A69" s="1">
         <v>42791</v>
       </c>
     </row>
-    <row r="70" spans="1:1">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A70" s="1">
         <v>42792</v>
       </c>
     </row>
-    <row r="71" spans="1:1">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A71" s="1">
         <v>42793</v>
       </c>
     </row>
-    <row r="72" spans="1:1">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A72" s="1">
         <v>42794</v>
       </c>
     </row>
-    <row r="73" spans="1:1">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A73" s="1">
         <v>42795</v>
       </c>
     </row>
-    <row r="74" spans="1:1">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A74" s="1">
         <v>42796</v>
       </c>
     </row>
-    <row r="75" spans="1:1">
+    <row r="75" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A75" s="1">
         <v>42797</v>
       </c>
     </row>
-    <row r="76" spans="1:1">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A76" s="1">
         <v>42798</v>
       </c>
     </row>
-    <row r="77" spans="1:1">
+    <row r="77" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A77" s="1">
         <v>42799</v>
       </c>
     </row>
-    <row r="78" spans="1:1">
+    <row r="78" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A78" s="1">
         <v>42800</v>
       </c>
     </row>
-    <row r="79" spans="1:1">
+    <row r="79" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A79" s="1">
         <v>42801</v>
       </c>
     </row>
-    <row r="80" spans="1:1">
+    <row r="80" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A80" s="1">
         <v>42802</v>
       </c>
     </row>
-    <row r="81" spans="1:1">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A81" s="1">
         <v>42803</v>
       </c>
     </row>
-    <row r="82" spans="1:1">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A82" s="1">
         <v>42804</v>
       </c>
     </row>
-    <row r="83" spans="1:1">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A83" s="1">
         <v>42805</v>
       </c>
     </row>
-    <row r="84" spans="1:1">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A84" s="1">
         <v>42806</v>
       </c>
     </row>
-    <row r="85" spans="1:1">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A85" s="1">
         <v>42807</v>
       </c>
     </row>
-    <row r="86" spans="1:1">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A86" s="1">
         <v>42808</v>
       </c>
     </row>
-    <row r="87" spans="1:1">
+    <row r="87" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A87" s="1">
         <v>42809</v>
       </c>
     </row>
-    <row r="88" spans="1:1">
+    <row r="88" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A88" s="1">
         <v>42810</v>
       </c>
     </row>
-    <row r="89" spans="1:1">
+    <row r="89" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A89" s="1">
         <v>42811</v>
       </c>
     </row>
-    <row r="90" spans="1:1">
+    <row r="90" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A90" s="1">
         <v>42812</v>
       </c>
     </row>
-    <row r="91" spans="1:1">
+    <row r="91" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A91" s="1">
         <v>42813</v>
       </c>
     </row>
-    <row r="92" spans="1:1">
+    <row r="92" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A92" s="1">
         <v>42814</v>
       </c>
     </row>
-    <row r="93" spans="1:1">
+    <row r="93" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A93" s="1">
         <v>42815</v>
       </c>
     </row>
-    <row r="94" spans="1:1">
+    <row r="94" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A94" s="1">
         <v>42816</v>
       </c>
     </row>
-    <row r="95" spans="1:1">
+    <row r="95" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A95" s="1">
         <v>42817</v>
       </c>
     </row>
-    <row r="96" spans="1:1">
+    <row r="96" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A96" s="1">
         <v>42818</v>
       </c>
     </row>
-    <row r="97" spans="1:1">
+    <row r="97" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A97" s="1">
         <v>42819</v>
       </c>
     </row>
-    <row r="98" spans="1:1">
+    <row r="98" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A98" s="1">
         <v>42820</v>
       </c>
     </row>
-    <row r="99" spans="1:1">
+    <row r="99" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A99" s="1">
         <v>42821</v>
       </c>
     </row>
-    <row r="100" spans="1:1">
+    <row r="100" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A100" s="1">
         <v>42822</v>
       </c>
     </row>
-    <row r="101" spans="1:1">
+    <row r="101" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A101" s="1">
         <v>42823</v>
       </c>
     </row>
-    <row r="102" spans="1:1">
+    <row r="102" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A102" s="1">
         <v>42824</v>
       </c>
     </row>
-    <row r="103" spans="1:1">
+    <row r="103" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A103" s="1">
         <v>42825</v>
       </c>
     </row>
-    <row r="104" spans="1:1">
+    <row r="104" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A104" s="1">
         <v>42826</v>
       </c>
     </row>
-    <row r="105" spans="1:1">
+    <row r="105" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A105" s="1">
         <v>42827</v>
       </c>
     </row>
-    <row r="106" spans="1:1">
+    <row r="106" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A106" s="1">
         <v>42828</v>
       </c>
     </row>
-    <row r="107" spans="1:1">
+    <row r="107" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A107" s="1">
         <v>42829</v>
       </c>
     </row>
-    <row r="108" spans="1:1">
+    <row r="108" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A108" s="1">
         <v>42830</v>
       </c>
     </row>
-    <row r="109" spans="1:1">
+    <row r="109" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A109" s="1">
         <v>42831</v>
       </c>
     </row>
-    <row r="110" spans="1:1">
+    <row r="110" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A110" s="1">
         <v>42832</v>
       </c>
     </row>
-    <row r="111" spans="1:1">
+    <row r="111" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A111" s="1">
         <v>42833</v>
       </c>
     </row>
-    <row r="112" spans="1:1">
+    <row r="112" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A112" s="1">
         <v>42834</v>
       </c>
     </row>
-    <row r="113" spans="1:1">
+    <row r="113" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A113" s="1">
         <v>42835</v>
       </c>
     </row>
-    <row r="114" spans="1:1">
+    <row r="114" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A114" s="1">
         <v>42836</v>
       </c>
     </row>
-    <row r="115" spans="1:1">
+    <row r="115" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A115" s="1">
         <v>42837</v>
       </c>
     </row>
-    <row r="116" spans="1:1">
+    <row r="116" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A116" s="1">
         <v>42838</v>
       </c>
     </row>
-    <row r="117" spans="1:1">
+    <row r="117" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A117" s="1">
         <v>42839</v>
       </c>
     </row>
-    <row r="118" spans="1:1">
+    <row r="118" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A118" s="1">
         <v>42840</v>
       </c>
     </row>
-    <row r="119" spans="1:1">
+    <row r="119" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A119" s="1">
         <v>42841</v>
       </c>
     </row>
-    <row r="120" spans="1:1">
+    <row r="120" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A120" s="1">
         <v>42842</v>
       </c>
     </row>
-    <row r="121" spans="1:1">
+    <row r="121" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A121" s="1">
         <v>42843</v>
       </c>
     </row>
-    <row r="122" spans="1:1">
+    <row r="122" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A122" s="1">
         <v>42844</v>
       </c>
     </row>
-    <row r="123" spans="1:1">
+    <row r="123" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A123" s="1">
         <v>42845</v>
       </c>
     </row>
-    <row r="124" spans="1:1">
+    <row r="124" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A124" s="1">
         <v>42846</v>
       </c>
     </row>
-    <row r="125" spans="1:1">
+    <row r="125" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A125" s="1">
         <v>42847</v>
       </c>
     </row>
-    <row r="126" spans="1:1">
+    <row r="126" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A126" s="1">
         <v>42848</v>
       </c>
     </row>
-    <row r="127" spans="1:1">
+    <row r="127" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A127" s="1">
         <v>42849</v>
       </c>
     </row>
-    <row r="128" spans="1:1">
+    <row r="128" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A128" s="1">
         <v>42850</v>
       </c>
     </row>
-    <row r="129" spans="1:1">
+    <row r="129" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A129" s="1">
         <v>42851</v>
       </c>
     </row>
-    <row r="130" spans="1:1">
+    <row r="130" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A130" s="1">
         <v>42852</v>
       </c>
     </row>
-    <row r="131" spans="1:1">
+    <row r="131" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A131" s="1">
         <v>42853</v>
       </c>
     </row>
-    <row r="132" spans="1:1">
+    <row r="132" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A132" s="1">
         <v>42854</v>
       </c>
     </row>
-    <row r="133" spans="1:1">
+    <row r="133" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A133" s="1">
         <v>42855</v>
       </c>
     </row>
-    <row r="134" spans="1:1">
+    <row r="134" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A134" s="1">
         <v>42856</v>
       </c>
     </row>
-    <row r="135" spans="1:1">
+    <row r="135" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A135" s="1">
         <v>42857</v>
       </c>
     </row>
-    <row r="136" spans="1:1">
+    <row r="136" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A136" s="1">
         <v>42858</v>
       </c>
     </row>
-    <row r="137" spans="1:1">
+    <row r="137" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A137" s="1">
         <v>42859</v>
       </c>
     </row>
-    <row r="138" spans="1:1">
+    <row r="138" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A138" s="1">
         <v>42860</v>
       </c>
     </row>
-    <row r="139" spans="1:1">
+    <row r="139" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A139" s="1">
         <v>42861</v>
       </c>
     </row>
-    <row r="140" spans="1:1">
+    <row r="140" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A140" s="1">
         <v>42862</v>
       </c>
     </row>
-    <row r="141" spans="1:1">
+    <row r="141" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A141" s="1">
         <v>42863</v>
       </c>
     </row>
-    <row r="142" spans="1:1">
+    <row r="142" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A142" s="1">
         <v>42864</v>
       </c>
     </row>
-    <row r="143" spans="1:1">
+    <row r="143" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A143" s="1">
         <v>42865</v>
       </c>
     </row>
-    <row r="144" spans="1:1">
+    <row r="144" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A144" s="1">
         <v>42866</v>
       </c>
     </row>
-    <row r="145" spans="1:1">
+    <row r="145" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A145" s="1">
         <v>42867</v>
       </c>

--- a/Timesheet.xlsx
+++ b/Timesheet.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="17726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="17809"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Someone\Documents\GitHub\Virtual-World-for-Reddit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="10" documentId="A14311D02825C65E11034595610202AE2DBA6EF7" xr6:coauthVersionLast="12" xr6:coauthVersionMax="12" xr10:uidLastSave="{469E32A7-250C-4A3F-B536-72E6F28407EB}"/>
+  <xr:revisionPtr revIDLastSave="12" documentId="7889603599D2617D93234A7D11B04D5C8CA66F25" xr6:coauthVersionLast="12" xr6:coauthVersionMax="12" xr10:uidLastSave="{AC00A5D3-98B7-40A2-BA5B-6B310220CD8C}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="20">
   <si>
     <t>Time Sheet</t>
   </si>
@@ -58,7 +58,28 @@
     <t>Server planning</t>
   </si>
   <si>
-    <t xml:space="preserve">Unity </t>
+    <t>Server and praw</t>
+  </si>
+  <si>
+    <t>Unity (LOD)</t>
+  </si>
+  <si>
+    <t>Praw</t>
+  </si>
+  <si>
+    <t>Unity </t>
+  </si>
+  <si>
+    <t>Server setup and Praw</t>
+  </si>
+  <si>
+    <t>Server Setup</t>
+  </si>
+  <si>
+    <t>Unity (Occlusion Testing)</t>
+  </si>
+  <si>
+    <t>Unity (Occlusion testing, chunk loading planning)</t>
   </si>
 </sst>
 </file>
@@ -403,8 +424,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I145"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0" xr3:uid="{AEA406A1-0E4B-5B11-9CD5-51D6E497D94C}">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0" xr3:uid="{AEA406A1-0E4B-5B11-9CD5-51D6E497D94C}">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.45"/>
@@ -474,15 +495,15 @@
       </c>
       <c r="B4">
         <f>SUM(B5:B155)</f>
-        <v>3.7</v>
+        <v>7.2</v>
       </c>
       <c r="D4">
-        <f t="shared" ref="C4:D4" si="0">SUM(D5:D155)</f>
-        <v>4.75</v>
+        <f t="shared" ref="D4" si="0">SUM(D5:D155)</f>
+        <v>7.75</v>
       </c>
       <c r="F4">
         <f>SUM(F5:F155)</f>
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="H4">
         <f>SUM(H5:H155)</f>
@@ -539,6 +560,9 @@
       <c r="B10">
         <v>2.2000000000000002</v>
       </c>
+      <c r="C10" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="1">
@@ -573,91 +597,125 @@
         <v>0.75</v>
       </c>
       <c r="E16" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1">
         <v>42739</v>
       </c>
+      <c r="B17">
+        <v>0.5</v>
+      </c>
+      <c r="C17" t="s">
+        <v>14</v>
+      </c>
       <c r="D17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E17" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1">
         <v>42740</v>
       </c>
-    </row>
-    <row r="19" spans="1:5">
+      <c r="B18">
+        <v>3</v>
+      </c>
+      <c r="C18" t="s">
+        <v>16</v>
+      </c>
+      <c r="F18">
+        <v>1.5</v>
+      </c>
+      <c r="G18" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1">
         <v>42741</v>
       </c>
-    </row>
-    <row r="20" spans="1:5">
+      <c r="B19">
+        <f>11.5-11.5</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1">
         <v>42742</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:7">
       <c r="A21" s="1">
         <v>42743</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:7">
       <c r="A22" s="1">
         <v>42744</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:7">
       <c r="A23" s="1">
         <v>42745</v>
       </c>
-    </row>
-    <row r="24" spans="1:5">
+      <c r="D23">
+        <v>1</v>
+      </c>
+      <c r="E23" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="1">
         <v>42746</v>
       </c>
-    </row>
-    <row r="25" spans="1:5">
+      <c r="D24">
+        <v>3</v>
+      </c>
+      <c r="E24" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="1">
         <v>42747</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:7">
       <c r="A26" s="1">
         <v>42748</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:7">
       <c r="A27" s="1">
         <v>42749</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:7">
       <c r="A28" s="1">
         <v>42750</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:7">
       <c r="A29" s="1">
         <v>42751</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:7">
       <c r="A30" s="1">
         <v>42752</v>
       </c>
     </row>
-    <row r="31" spans="1:5">
+    <row r="31" spans="1:7">
       <c r="A31" s="1">
         <v>42753</v>
       </c>
     </row>
-    <row r="32" spans="1:5">
+    <row r="32" spans="1:7">
       <c r="A32" s="1">
         <v>42754</v>
       </c>

--- a/Timesheet.xlsx
+++ b/Timesheet.xlsx
@@ -414,8 +414,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I145"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -485,7 +485,7 @@
       </c>
       <c r="B4">
         <f>SUM(B5:B155)</f>
-        <v>7.2</v>
+        <v>19.7</v>
       </c>
       <c r="D4">
         <f t="shared" ref="D4" si="0">SUM(D5:D155)</f>
@@ -656,6 +656,9 @@
       <c r="A25" s="1">
         <v>42747</v>
       </c>
+      <c r="B25">
+        <v>2</v>
+      </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A26" s="1">
@@ -666,6 +669,9 @@
       <c r="A27" s="1">
         <v>42749</v>
       </c>
+      <c r="B27">
+        <v>5.5</v>
+      </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A28" s="1">
@@ -692,82 +698,91 @@
         <v>42754</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A33" s="1">
         <v>42755</v>
       </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B33">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A34" s="1">
         <v>42756</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A35" s="1">
         <v>42757</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A36" s="1">
         <v>42758</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A37" s="1">
         <v>42759</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A38" s="1">
         <v>42760</v>
       </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A39" s="1">
         <v>42761</v>
       </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A40" s="1">
         <v>42762</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A41" s="1">
         <v>42763</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A42" s="1">
         <v>42764</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A43" s="1">
         <v>42765</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A44" s="1">
         <v>42766</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A45" s="1">
         <v>42767</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A46" s="1">
         <v>42768</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A47" s="1">
         <v>42769</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A48" s="1">
         <v>42770</v>
       </c>
